--- a/assignment1/results/knn.xlsx
+++ b/assignment1/results/knn.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -551,65 +551,65 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>&lt;class 'sklearn.feature_extraction.text.CountVectorizer'&gt;</t>
+          <t>Bag of words</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.38</v>
+        <v>0.68</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3714285714285714</v>
+        <v>0.6910569105691057</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6310679611650486</v>
+        <v>0.8252427184466019</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4676258992805755</v>
+        <v>0.7522123893805309</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2849162011173184</v>
+        <v>0.4539007092198581</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5930232558139535</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3849056603773585</v>
+        <v>0.5638766519823788</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3815789473684211</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3085106382978723</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3411764705882353</v>
+        <v>0.6195652173913044</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3968253968253968</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2450980392156863</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="P2" t="n">
-        <v>0.303030303030303</v>
+        <v>0.5534591194968554</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5645161290322581</v>
+        <v>0.8796296296296297</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3097345132743363</v>
+        <v>0.8407079646017699</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4</v>
+        <v>0.8597285067873304</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5111111111111111</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2254901960784314</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3129251700680272</v>
+        <v>0.6885245901639345</v>
       </c>
     </row>
     <row r="3">
@@ -623,65 +623,65 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>&lt;class 'sklearn.feature_extraction.text.CountVectorizer'&gt;</t>
+          <t>Bag of words</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.4066666666666667</v>
+        <v>0.6733333333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4</v>
+        <v>0.7798165137614679</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5048543689320388</v>
+        <v>0.8252427184466019</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4463519313304721</v>
+        <v>0.8018867924528301</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3109756097560976</v>
+        <v>0.4402985074626866</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5930232558139535</v>
+        <v>0.686046511627907</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4080000000000001</v>
+        <v>0.5363636363636364</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.5894736842105263</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3404255319148936</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3764705882352941</v>
+        <v>0.5925925925925924</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4375</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4242424242424243</v>
+        <v>0.54320987654321</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.5128205128205128</v>
+        <v>0.8347826086956521</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3539823008849557</v>
+        <v>0.8495575221238938</v>
       </c>
       <c r="S3" t="n">
-        <v>0.418848167539267</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="T3" t="n">
-        <v>0.4821428571428572</v>
+        <v>0.735632183908046</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3417721518987342</v>
+        <v>0.6772486772486773</v>
       </c>
     </row>
     <row r="4">
@@ -695,65 +695,65 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>&lt;class 'sklearn.feature_extraction.text.CountVectorizer'&gt;</t>
+          <t>Bag of words</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.41</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3925925925925926</v>
+        <v>0.8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5145631067961165</v>
+        <v>0.8543689320388349</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4453781512605042</v>
+        <v>0.8262910798122066</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3067484662576687</v>
+        <v>0.4428571428571428</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5813953488372093</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4016064257028112</v>
+        <v>0.5486725663716814</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4303797468354431</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3617021276595745</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3930635838150289</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="N4" t="n">
-        <v>0.4380952380952381</v>
+        <v>0.7636363636363637</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4509803921568628</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="P4" t="n">
-        <v>0.4444444444444445</v>
+        <v>0.5350318471337581</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6</v>
+        <v>0.8738738738738738</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3451327433628318</v>
+        <v>0.8584070796460177</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4382022471910112</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="T4" t="n">
-        <v>0.4528301886792453</v>
+        <v>0.7790697674418605</v>
       </c>
       <c r="U4" t="n">
-        <v>0.2352941176470588</v>
+        <v>0.6568627450980392</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3096774193548387</v>
+        <v>0.7127659574468087</v>
       </c>
     </row>
     <row r="5">
@@ -767,65 +767,65 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&lt;class 'sklearn.feature_extraction.text.CountVectorizer'&gt;</t>
+          <t>Bag of words</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.3966666666666667</v>
+        <v>0.6883333333333334</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5</v>
+        <v>0.8282828282828283</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4757281553398058</v>
+        <v>0.7961165048543689</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4875621890547264</v>
+        <v>0.8118811881188118</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3191489361702128</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5232558139534884</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3964757709251102</v>
+        <v>0.5581395348837208</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3737373737373738</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3936170212765958</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="M5" t="n">
-        <v>0.383419689119171</v>
+        <v>0.6096256684491979</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3404255319148936</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3137254901960784</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3265306122448979</v>
+        <v>0.5647058823529412</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.8290598290598291</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3539823008849557</v>
+        <v>0.8584070796460177</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3980099502487562</v>
+        <v>0.8434782608695652</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4375</v>
+        <v>0.7340425531914894</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3431372549019608</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.7040816326530612</v>
       </c>
     </row>
     <row r="6">
@@ -839,65 +839,65 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>&lt;class 'sklearn.feature_extraction.text.CountVectorizer'&gt;</t>
+          <t>Bag of words</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.4266666666666667</v>
+        <v>0.6883333333333334</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5274725274725275</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4660194174757282</v>
+        <v>0.8155339805825242</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4948453608247423</v>
+        <v>0.8195121951219512</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3380281690140845</v>
+        <v>0.4435483870967742</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5581395348837209</v>
+        <v>0.6395348837209303</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.5238095238095237</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4186046511627907</v>
+        <v>0.5979381443298969</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3829787234042553</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4</v>
+        <v>0.6073298429319371</v>
       </c>
       <c r="N6" t="n">
-        <v>0.40625</v>
+        <v>0.7384615384615385</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="P6" t="n">
-        <v>0.393939393939394</v>
+        <v>0.5748502994011976</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4891304347826087</v>
+        <v>0.8434782608695652</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3982300884955752</v>
+        <v>0.8584070796460177</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4390243902439024</v>
+        <v>0.8508771929824561</v>
       </c>
       <c r="T6" t="n">
-        <v>0.4301075268817204</v>
+        <v>0.7319587628865979</v>
       </c>
       <c r="U6" t="n">
-        <v>0.392156862745098</v>
+        <v>0.696078431372549</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4102564102564102</v>
+        <v>0.71356783919598</v>
       </c>
     </row>
     <row r="7">
@@ -911,65 +911,65 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>&lt;class 'sklearn.feature_extraction.text.CountVectorizer'&gt;</t>
+          <t>Bag of words</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.4466666666666667</v>
+        <v>0.7133333333333334</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5</v>
+        <v>0.8349514563106796</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4660194174757282</v>
+        <v>0.8349514563106796</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4824120603015076</v>
+        <v>0.8349514563106796</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3401360544217687</v>
+        <v>0.487603305785124</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5813953488372093</v>
+        <v>0.686046511627907</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4291845493562231</v>
+        <v>0.5700483091787439</v>
       </c>
       <c r="K7" t="n">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="L7" t="n">
-        <v>0.351063829787234</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3905325443786982</v>
+        <v>0.6288659793814433</v>
       </c>
       <c r="N7" t="n">
-        <v>0.462962962962963</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4901960784313725</v>
+        <v>0.4607843137254902</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.5696969696969697</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5274725274725275</v>
+        <v>0.8672566371681416</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4247787610619469</v>
+        <v>0.8672566371681416</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.8672566371681416</v>
       </c>
       <c r="T7" t="n">
-        <v>0.4698795180722892</v>
+        <v>0.77</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.7549019607843137</v>
       </c>
       <c r="V7" t="n">
-        <v>0.4216216216216216</v>
+        <v>0.7623762376237624</v>
       </c>
     </row>
   </sheetData>
